--- a/export/excel/packets_counter.xlsx
+++ b/export/excel/packets_counter.xlsx
@@ -426,7 +426,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="40" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
@@ -527,10 +527,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>3171439</v>
+        <v>1954607</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>30514</v>
+        <v>19690</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>-1</v>
@@ -545,10 +545,10 @@
         <v>-1</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>2359002</v>
+        <v>2129092</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>14125</v>
+        <v>17990</v>
       </c>
     </row>
     <row r="4">
@@ -588,10 +588,10 @@
         <v>-1</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>0</v>
+        <v>108914</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>0</v>
+        <v>964</v>
       </c>
     </row>
     <row r="5">
@@ -631,10 +631,10 @@
         <v>-1</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>0</v>
+        <v>51818</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>0</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6">
@@ -674,10 +674,10 @@
         <v>-1</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>0</v>
+        <v>48128</v>
       </c>
       <c r="M6" s="1" t="n">
-        <v>0</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7">
@@ -957,7 +957,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="40" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
@@ -1058,7 +1058,7 @@
         <v>-1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>4377420</v>
+        <v>773969</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>-1</v>
@@ -1076,7 +1076,7 @@
         <v>-1</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>9508494</v>
+        <v>1304341</v>
       </c>
       <c r="M3" s="1" t="n">
         <v>-1</v>
@@ -1119,7 +1119,7 @@
         <v>-1</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>0</v>
+        <v>2500634</v>
       </c>
       <c r="M4" s="1" t="n">
         <v>-1</v>
@@ -1144,7 +1144,7 @@
         <v>-1</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>129268</v>
+        <v>94763</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>-1</v>
@@ -1162,7 +1162,7 @@
         <v>-1</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>0</v>
+        <v>640</v>
       </c>
       <c r="M5" s="1" t="n">
         <v>-1</v>
@@ -1222,7 +1222,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:M10"/>
+  <dimension ref="A2:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1230,7 +1230,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="40" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
@@ -1319,7 +1319,7 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>8956</v>
+        <v>23491</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>0</v>
@@ -1331,10 +1331,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>1396725</v>
+        <v>3205818</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>15407</v>
+        <v>37281</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>-1</v>
@@ -1349,10 +1349,10 @@
         <v>-1</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>2317258</v>
+        <v>2740423</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>12315</v>
+        <v>22444</v>
       </c>
     </row>
     <row r="4">
@@ -1392,10 +1392,10 @@
         <v>-1</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>3536233</v>
+        <v>2590987</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>50501</v>
+        <v>33524</v>
       </c>
     </row>
     <row r="5">
@@ -1405,7 +1405,7 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>90647</v>
+        <v>32076</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>0</v>
@@ -1414,13 +1414,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>5387459</v>
+        <v>1882415</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>94053</v>
+        <v>27689</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>-1</v>
@@ -1435,10 +1435,10 @@
         <v>-1</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>4449253</v>
+        <v>566288</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>69008</v>
+        <v>3748</v>
       </c>
     </row>
     <row r="6">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>80614</v>
+        <v>14807</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>0</v>
@@ -1457,13 +1457,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>4692622</v>
+        <v>1007263</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>82628</v>
+        <v>12525</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>-1</v>
@@ -1478,10 +1478,10 @@
         <v>-1</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>5086179</v>
+        <v>1721680</v>
       </c>
       <c r="M6" s="1" t="n">
-        <v>78972</v>
+        <v>20985</v>
       </c>
     </row>
     <row r="7">
@@ -1521,10 +1521,10 @@
         <v>-1</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>815</v>
+        <v>300</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1564,10 +1564,10 @@
         <v>-1</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>815</v>
+        <v>192</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1607,10 +1607,10 @@
         <v>-1</v>
       </c>
       <c r="L9" s="1" t="n">
-        <v>875</v>
+        <v>0</v>
       </c>
       <c r="M9" s="1" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1650,10 +1650,311 @@
         <v>-1</v>
       </c>
       <c r="L10" s="1" t="n">
-        <v>875</v>
+        <v>0</v>
       </c>
       <c r="M10" s="1" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>GigabitEthernet2/0</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>GigabitEthernet2/1</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>GigabitEthernet2/2</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>GigabitEthernet2/3</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>GigabitEthernet3/0</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>GigabitEthernet3/1</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>GigabitEthernet3/2</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/export/excel/packets_counter.xlsx
+++ b/export/excel/packets_counter.xlsx
@@ -4,11 +4,12 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="R1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SW1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="R3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SW1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -514,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>2252806</v>
+        <v>954984</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>28394</v>
+        <v>12071</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
@@ -526,10 +527,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>1162160</v>
+        <v>1020241</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>10093</v>
+        <v>7085</v>
       </c>
     </row>
     <row r="4">
@@ -798,7 +799,7 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>23847</v>
+        <v>9356</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>0</v>
@@ -810,10 +811,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>1578817</v>
+        <v>620555</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>23847</v>
+        <v>9356</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>0</v>
@@ -822,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>341217</v>
+        <v>137551</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>3052</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="12">
@@ -859,10 +860,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>341619</v>
+        <v>137883</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>3056</v>
+        <v>1231</v>
       </c>
     </row>
   </sheetData>
@@ -871,6 +872,243 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>interface</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>rx_broadcast</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>rx_discards</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>rx_errors</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>rx_multicast</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>rx_octets</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>rx_unicast</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>tx_discards</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>tx_errors</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>tx_octets</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>tx_unicast</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>em0</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>1466466</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>3368148</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>em1</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>em2</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>mtun</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -961,7 +1199,7 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>672</v>
+        <v>136</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>0</v>
@@ -973,10 +1211,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>646142</v>
+        <v>333516</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>6904</v>
+        <v>4199</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
@@ -985,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>1496879</v>
+        <v>1172444</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>12344</v>
+        <v>7619</v>
       </c>
     </row>
     <row r="4">
@@ -998,7 +1236,7 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>533</v>
+        <v>205</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>0</v>
@@ -1007,13 +1245,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>337905</v>
+        <v>136205</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>3033</v>
+        <v>1225</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
@@ -1022,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>1876420</v>
+        <v>737475</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>25285</v>
+        <v>9921</v>
       </c>
     </row>
     <row r="5">
@@ -1059,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>1889973</v>
+        <v>739688</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>25402</v>
+        <v>9940</v>
       </c>
     </row>
     <row r="6">
@@ -1096,10 +1334,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>1880857</v>
+        <v>740140</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>25264</v>
+        <v>9941</v>
       </c>
     </row>
     <row r="7">
@@ -1133,10 +1371,10 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1170,10 +1408,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1207,10 +1445,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">

--- a/export/excel/packets_counter.xlsx
+++ b/export/excel/packets_counter.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:K12"/>
+  <dimension ref="A2:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>954984</v>
+        <v>57118</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>12071</v>
+        <v>620</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
@@ -527,10 +527,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>1020241</v>
+        <v>74050</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>7085</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4">
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>9356</v>
+        <v>378</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>0</v>
@@ -811,10 +811,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>620555</v>
+        <v>28222</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>9356</v>
+        <v>378</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>137551</v>
+        <v>8760</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>1231</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -860,10 +860,47 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>137883</v>
+        <v>8400</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>1231</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Loopback0</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -974,7 +1011,7 @@
         <v>-1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>1466466</v>
+        <v>262608</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>-1</v>
@@ -986,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>3368148</v>
+        <v>562965</v>
       </c>
       <c r="K3" s="1" t="n">
         <v>-1</v>
@@ -1023,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>0</v>
+        <v>682</v>
       </c>
       <c r="K4" s="1" t="n">
         <v>-1</v>
@@ -1060,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>0</v>
+        <v>640</v>
       </c>
       <c r="K5" s="1" t="n">
         <v>-1</v>
@@ -1114,7 +1151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:K17"/>
+  <dimension ref="A2:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1199,7 +1236,7 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>136</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>0</v>
@@ -1211,10 +1248,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>333516</v>
+        <v>30533</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>4199</v>
+        <v>342</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
@@ -1223,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>1172444</v>
+        <v>94903</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>7619</v>
+        <v>523</v>
       </c>
     </row>
     <row r="4">
@@ -1236,7 +1273,7 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>205</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>0</v>
@@ -1245,13 +1282,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>136205</v>
+        <v>6324</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>1225</v>
+        <v>53</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
@@ -1260,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>737475</v>
+        <v>32811</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>9921</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5">
@@ -1297,10 +1334,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>739688</v>
+        <v>33047</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>9940</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6">
@@ -1334,10 +1371,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>740140</v>
+        <v>33047</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>9941</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7">
@@ -1445,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>0</v>
+        <v>427</v>
       </c>
       <c r="K9" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1744,6 +1781,43 @@
         <v>0</v>
       </c>
       <c r="K17" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Vlan10</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="n">
         <v>0</v>
       </c>
     </row>

--- a/export/excel/packets_counter.xlsx
+++ b/export/excel/packets_counter.xlsx
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>57118</v>
+        <v>1126587</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>620</v>
+        <v>14507</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
@@ -527,10 +527,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>74050</v>
+        <v>679372</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>470</v>
+        <v>4882</v>
       </c>
     </row>
     <row r="4">
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>378</v>
+        <v>12520</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>0</v>
@@ -811,10 +811,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>28222</v>
+        <v>834252</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>378</v>
+        <v>12520</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>8760</v>
+        <v>176555</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>71</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="12">
@@ -860,10 +860,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>8400</v>
+        <v>176112</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>69</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="13">
@@ -897,10 +897,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="n">
-        <v>456</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1011,7 +1011,7 @@
         <v>-1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>262608</v>
+        <v>858255</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>-1</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>562965</v>
+        <v>1864126</v>
       </c>
       <c r="K3" s="1" t="n">
         <v>-1</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>682</v>
+        <v>233054</v>
       </c>
       <c r="K4" s="1" t="n">
         <v>-1</v>
@@ -1151,7 +1151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:K18"/>
+  <dimension ref="A2:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>0</v>
@@ -1248,10 +1248,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>30533</v>
+        <v>338347</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>342</v>
+        <v>3317</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>94903</v>
+        <v>947010</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>523</v>
+        <v>6213</v>
       </c>
     </row>
     <row r="4">
@@ -1273,7 +1273,7 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>11</v>
+        <v>267</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>0</v>
@@ -1282,13 +1282,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>6324</v>
+        <v>174969</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>53</v>
+        <v>1591</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>32811</v>
+        <v>990723</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>400</v>
+        <v>13276</v>
       </c>
     </row>
     <row r="5">
@@ -1334,10 +1334,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>33047</v>
+        <v>993803</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>402</v>
+        <v>13301</v>
       </c>
     </row>
     <row r="6">
@@ -1371,10 +1371,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>33047</v>
+        <v>324882</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>402</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="7">
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>427</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1787,37 +1787,74 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
+          <t>Loopback0</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
           <t>Vlan10</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1" t="n">
+      <c r="B19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="n">
         <v>0</v>
       </c>
     </row>

--- a/export/excel/packets_counter.xlsx
+++ b/export/excel/packets_counter.xlsx
@@ -4,12 +4,13 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="R1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="R3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SW1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="R2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="R3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MLS1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -418,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:K13"/>
+  <dimension ref="A2:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,10 +516,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>1126587</v>
+        <v>1435055</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>14507</v>
+        <v>15710</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
@@ -527,10 +528,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>679372</v>
+        <v>875237</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>4882</v>
+        <v>7636</v>
       </c>
     </row>
     <row r="4">
@@ -799,7 +800,7 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>12520</v>
+        <v>337</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>0</v>
@@ -811,10 +812,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>834252</v>
+        <v>33276</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>12520</v>
+        <v>352</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>0</v>
@@ -823,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>176555</v>
+        <v>322402</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>1601</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="12">
@@ -836,7 +837,7 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>0</v>
@@ -848,10 +849,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>0</v>
+        <v>884</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>0</v>
@@ -860,47 +861,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>176112</v>
+        <v>280803</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Loopback0</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1" t="n">
-        <v>0</v>
+        <v>2501</v>
       </c>
     </row>
   </sheetData>
@@ -1011,7 +975,7 @@
         <v>-1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>858255</v>
+        <v>514565</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>-1</v>
@@ -1023,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>1864126</v>
+        <v>922454</v>
       </c>
       <c r="K3" s="1" t="n">
         <v>-1</v>
@@ -1048,7 +1012,7 @@
         <v>-1</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0</v>
+        <v>31734</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>-1</v>
@@ -1060,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>233054</v>
+        <v>33276</v>
       </c>
       <c r="K4" s="1" t="n">
         <v>-1</v>
@@ -1085,7 +1049,7 @@
         <v>-1</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0</v>
+        <v>31710</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>-1</v>
@@ -1097,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>640</v>
+        <v>32912</v>
       </c>
       <c r="K5" s="1" t="n">
         <v>-1</v>
@@ -1151,7 +1115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:K19"/>
+  <dimension ref="A2:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1232,11 +1196,11 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>GigabitEthernet0/0</t>
+          <t>Ethernet1/0</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>0</v>
@@ -1248,10 +1212,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>338347</v>
+        <v>1533184</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>3317</v>
+        <v>16734</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
@@ -1260,20 +1224,20 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>947010</v>
+        <v>1268448</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>6213</v>
+        <v>11013</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>GigabitEthernet0/1</t>
+          <t>Ethernet1/1</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>0</v>
@@ -1282,13 +1246,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>174969</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>1591</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
@@ -1297,16 +1261,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>990723</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>13276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>GigabitEthernet0/2</t>
+          <t>Ethernet1/2</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
@@ -1334,16 +1298,16 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>993803</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>13301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>GigabitEthernet0/3</t>
+          <t>Ethernet1/3</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
@@ -1371,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>324882</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>2699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>GigabitEthernet1/0</t>
+          <t>Ethernet1/4</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
@@ -1417,7 +1381,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>GigabitEthernet1/1</t>
+          <t>Ethernet1/5</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
@@ -1454,7 +1418,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>GigabitEthernet1/2</t>
+          <t>Ethernet1/6</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
@@ -1491,7 +1455,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>GigabitEthernet1/3</t>
+          <t>Ethernet1/7</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
@@ -1528,11 +1492,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>GigabitEthernet2/0</t>
+          <t>FastEthernet0/0</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>0</v>
@@ -1544,10 +1508,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>0</v>
+        <v>32912</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>0</v>
@@ -1556,15 +1520,474 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>0</v>
+        <v>324353</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>0</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
+          <t>FastEthernet0/1</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>320372</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>2978</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>interface</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>rx_broadcast</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>rx_discards</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>rx_errors</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>rx_multicast</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>rx_octets</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>rx_unicast</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>tx_discards</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>tx_errors</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>tx_octets</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>tx_unicast</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/0</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>745</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>982276</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>10002</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>1670165</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>13530</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/1</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>62177</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/2</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>90898</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>GigabitEthernet0/3</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>91062</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>GigabitEthernet1/0</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>GigabitEthernet1/1</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>GigabitEthernet1/2</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>GigabitEthernet1/3</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>GigabitEthernet2/0</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
           <t>GigabitEthernet2/1</t>
         </is>
       </c>
@@ -1787,7 +2210,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Loopback0</t>
+          <t>Vlan30</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
@@ -1803,10 +2226,10 @@
         <v>0</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>0</v>
@@ -1815,16 +2238,16 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="n">
-        <v>0</v>
+        <v>53032</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>0</v>
+        <v>634</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Vlan10</t>
+          <t>Vlan40</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
@@ -1840,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>0</v>
@@ -1852,10 +2275,47 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="n">
-        <v>0</v>
+        <v>53196</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>0</v>
+        <v>636</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Vlan50</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>53048</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>634</v>
       </c>
     </row>
   </sheetData>
